--- a/experimental-scripts/psychopy/basic-script/basicscript_conditions.xlsx
+++ b/experimental-scripts/psychopy/basic-script/basicscript_conditions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/esperanza_badaya_ugent_be/Documents/Misc - Eye-tracking support/ugent-eyetracking/experimental-scripts/psychopy/basic-script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2nd floor lab\pylink\basic-script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{E2FFE78E-9A15-4525-B1A6-295900B963A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0934EDB7-C18E-41D5-A843-6115989D414F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1038B454-A5BC-4025-80B2-1F45BC82D959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{3C7BC9B8-7EFD-46BC-BCE1-85E0E4C9F284}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{3C7BC9B8-7EFD-46BC-BCE1-85E0E4C9F284}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>image</t>
   </si>
@@ -62,24 +62,6 @@
     <t>img/S5.jpg</t>
   </si>
   <si>
-    <t>img/S6.jpg</t>
-  </si>
-  <si>
-    <t>img/S7.jpg</t>
-  </si>
-  <si>
-    <t>img/S8.jpg</t>
-  </si>
-  <si>
-    <t>img/S9.jpg</t>
-  </si>
-  <si>
-    <t>img/S10.jpg</t>
-  </si>
-  <si>
-    <t>img/S11.jpg</t>
-  </si>
-  <si>
     <t>img/H1.jpg</t>
   </si>
   <si>
@@ -95,31 +77,7 @@
     <t>img/H5.jpg</t>
   </si>
   <si>
-    <t>img/H6.jpg</t>
-  </si>
-  <si>
-    <t>img/H7.jpg</t>
-  </si>
-  <si>
-    <t>img/H8.jpg</t>
-  </si>
-  <si>
-    <t>img/H9.jpg</t>
-  </si>
-  <si>
-    <t>img/H10.jpg</t>
-  </si>
-  <si>
-    <t>img/H11.jpg</t>
-  </si>
-  <si>
     <t>sad</t>
-  </si>
-  <si>
-    <t>img/S12.jpg</t>
-  </si>
-  <si>
-    <t>img/H12.jpg</t>
   </si>
 </sst>
 </file>
@@ -491,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76630B0D-FA87-473F-AF7E-59EFF0593F2E}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -520,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -528,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -536,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -544,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -568,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,118 +542,6 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
         <v>2</v>
       </c>
     </row>
